--- a/data/meta/UM_10_16Table.xlsx
+++ b/data/meta/UM_10_16Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960"/>
+    <workbookView windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <t>addeo. addmeo. subfmeo. addzeo. subfzeo.</t>
   </si>
   <si>
-    <t>1 - 2 cycles (GPR) ; 2 - 3 cycles (XER) ; 6 - 7 cycles (CR)</t>
+    <t>1 - 2 cycles (GPR) ; 2 - 3 cycles (XER) ; 6 - 7 cycles (CR)</t>
   </si>
   <si>
     <t>2/3 cycles</t>
@@ -991,10 +991,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1006,15 +1006,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,7 +1028,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,38 +1065,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1082,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1096,9 +1097,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,7 +1114,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,29 +1129,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,13 +1158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,19 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,19 +1254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,13 +1284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,43 +1326,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,8 +1355,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,24 +1432,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1405,47 +1441,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,85 +1454,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,61 +1541,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1927,18 +1927,18 @@
   <sheetPr/>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="107.528846153846" customWidth="1"/>
-    <col min="2" max="2" width="17.2307692307692" customWidth="1"/>
-    <col min="3" max="3" width="48.3076923076923" customWidth="1"/>
-    <col min="4" max="4" width="26.9230769230769" customWidth="1"/>
-    <col min="5" max="5" width="7.04807692307692" customWidth="1"/>
-    <col min="6" max="6" width="5.27884615384615" customWidth="1"/>
+    <col min="1" max="1" width="255.692307692308" customWidth="1"/>
+    <col min="2" max="2" width="38.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="54.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="45.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="14.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="73.9230769230769" customWidth="1"/>
     <col min="7" max="7" width="82.3653846153846" customWidth="1"/>
   </cols>
   <sheetData>
